--- a/biology/Botanique/Ficus_teloukat/Ficus_teloukat.xlsx
+++ b/biology/Botanique/Ficus_teloukat/Ficus_teloukat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus cordata subsp. salicifolia ou Ficus teloukat est une sous-espèce de plantes à fleurs du genre Ficus et de la famille des Moracées.
 </t>
@@ -511,17 +523,19 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ficus cordata subsp. salicifolia a pour synonymes : 
-Ficus ambiguum Forssk.[1]
-Ficus eucalyptoides Batt. &amp; Trab.[1]
-Ficus indica Forssk.[1]
-Ficus pretoriae Burtt Davy[1]
-Ficus salicifolia Vahl[1],[2]
-Ficus taab Forssk.[1]
-Ficus teloukat Batt. &amp; Trab.[2]
-Urostigma salicifolium Miq.[1]</t>
+Ficus ambiguum Forssk.
+Ficus eucalyptoides Batt. &amp; Trab.
+Ficus indica Forssk.
+Ficus pretoriae Burtt Davy
+Ficus salicifolia Vahl,
+Ficus taab Forssk.
+Ficus teloukat Batt. &amp; Trab.
+Urostigma salicifolium Miq.</t>
         </is>
       </c>
     </row>
